--- a/FestivalKalenderCH.xlsx
+++ b/FestivalKalenderCH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vamida013\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas BUSCH\lukasbuschdev_GIT\FestivalCalender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD39A5A-E2DC-4B67-8BD8-442A10A21926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E9E2D0-D024-421D-B3C1-7FE7410BBC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30615" yWindow="1830" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>DATUM 2024</t>
-  </si>
-  <si>
     <t>DAUER</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>Arbon</t>
+  </si>
+  <si>
+    <t>DATUM</t>
   </si>
 </sst>
 </file>
@@ -266,7 +266,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -379,7 +379,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -400,7 +400,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,52 +713,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="6">
         <v>900</v>
@@ -768,57 +768,57 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="H4" s="6">
         <v>72000</v>
@@ -828,119 +828,119 @@
       </c>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="8">
         <v>103</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H7" s="12">
         <v>1500</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="6">
         <v>1500</v>
@@ -949,30 +949,30 @@
         <v>123</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="12">
         <v>185000</v>
@@ -982,92 +982,92 @@
       </c>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="6">
         <v>78000</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="H11" s="12">
         <v>18000</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="8">
         <v>99</v>
@@ -1076,61 +1076,61 @@
     </row>
     <row r="13" spans="1:10" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="H13" s="12">
         <v>60000</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="H14" s="6">
         <v>24000</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="1"/>
     </row>
